--- a/Data/Capybara_Com05_Dispatcher_Config.xlsx
+++ b/Data/Capybara_Com05_Dispatcher_Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>ZRPA_COM05</t>
+  </si>
+  <si>
+    <t>Process_Name</t>
   </si>
 </sst>
 </file>
@@ -3296,7 +3299,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>90</v>
